--- a/data/trans_orig/P9_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P9_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE24C7D-C192-4D74-A6DD-88AD8C9993CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65D721B3-5AC2-4934-B986-BABAADB0BB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8695ADD2-1905-4336-B401-50E3F7EBDA8A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E9E9F8B-257E-4224-8513-3D6F072B4504}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,1237 +80,1219 @@
     <t>1,79%</t>
   </si>
   <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>66,49%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>95,36%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>9,54%</t>
@@ -1319,31 +1301,31 @@
     <t>7,87%</t>
   </si>
   <si>
-    <t>11,34%</t>
+    <t>11,37%</t>
   </si>
   <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>89,31%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>90,46%</t>
   </si>
   <si>
-    <t>88,66%</t>
+    <t>88,63%</t>
   </si>
   <si>
     <t>92,13%</t>
@@ -1352,217 +1334,217 @@
     <t>12,55%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>87,45%</t>
   </si>
   <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
   <si>
     <t>83,49%</t>
   </si>
   <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
   </si>
   <si>
     <t>85,44%</t>
   </si>
   <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>20,46%</t>
   </si>
   <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>24,57%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>22,51%</t>
   </si>
   <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
   </si>
   <si>
     <t>79,54%</t>
   </si>
   <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
   </si>
   <si>
     <t>75,43%</t>
   </si>
   <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>77,49%</t>
   </si>
   <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
   </si>
   <si>
     <t>25,38%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
   </si>
   <si>
     <t>38,79%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
   </si>
   <si>
     <t>33,36%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>61,21%</t>
   </si>
   <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>66,64%</t>
   </si>
   <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
   </si>
   <si>
     <t>82,66%</t>
   </si>
   <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E1C79-B417-4CFE-9E1F-64D610E53DAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FE5080-7BD0-4CB6-AFD3-F4DD90DC8FA9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2408,13 +2390,13 @@
         <v>31088</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
@@ -2423,13 +2405,13 @@
         <v>63111</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -2438,13 +2420,13 @@
         <v>94199</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2441,13 @@
         <v>607580</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>598</v>
@@ -2474,13 +2456,13 @@
         <v>626633</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1181</v>
@@ -2489,13 +2471,13 @@
         <v>1234213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,7 +2533,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2563,13 +2545,13 @@
         <v>37291</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -2578,13 +2560,13 @@
         <v>73261</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -2593,13 +2575,13 @@
         <v>110552</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2596,13 @@
         <v>481856</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>430</v>
@@ -2629,13 +2611,13 @@
         <v>442381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>878</v>
@@ -2644,13 +2626,13 @@
         <v>924237</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,7 +2688,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2718,13 +2700,13 @@
         <v>60528</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -2733,13 +2715,13 @@
         <v>72693</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -2748,13 +2730,13 @@
         <v>133221</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2751,13 @@
         <v>326182</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>325</v>
@@ -2784,13 +2766,13 @@
         <v>331293</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>655</v>
@@ -2799,13 +2781,13 @@
         <v>657475</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2843,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2873,13 +2855,13 @@
         <v>129626</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>255</v>
@@ -2888,13 +2870,13 @@
         <v>267305</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>391</v>
@@ -2903,13 +2885,13 @@
         <v>396931</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2906,13 @@
         <v>372840</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>406</v>
@@ -2939,13 +2921,13 @@
         <v>409537</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>793</v>
@@ -2954,13 +2936,13 @@
         <v>782377</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3010,13 @@
         <v>296418</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>530</v>
@@ -3043,13 +3025,13 @@
         <v>552134</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>830</v>
@@ -3058,13 +3040,13 @@
         <v>848551</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3061,13 @@
         <v>2980126</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2767</v>
@@ -3094,28 +3076,28 @@
         <v>2827064</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5681</v>
       </c>
       <c r="N23" s="7">
-        <v>5807189</v>
+        <v>5807190</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,7 +3139,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3171,7 +3153,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABD53AE-647A-462E-AEF1-C55A14BD2BE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D2995A-8570-4176-9FD5-3C663D65C280}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3210,7 +3192,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,13 +3299,13 @@
         <v>18371</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3332,13 +3314,13 @@
         <v>20208</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -3347,13 +3329,13 @@
         <v>38579</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3350,13 @@
         <v>435775</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
@@ -3383,13 +3365,13 @@
         <v>410022</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>830</v>
@@ -3398,13 +3380,13 @@
         <v>845797</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3454,13 @@
         <v>23985</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3487,10 +3469,10 @@
         <v>30206</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>167</v>
@@ -3505,10 +3487,10 @@
         <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3505,13 @@
         <v>663102</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>543</v>
@@ -3538,13 +3520,13 @@
         <v>580049</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="M8" s="7">
         <v>1187</v>
@@ -3553,13 +3535,13 @@
         <v>1243151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3609,13 @@
         <v>43984</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -3642,13 +3624,13 @@
         <v>84137</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -3657,13 +3639,13 @@
         <v>128121</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3660,13 @@
         <v>637879</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H11" s="7">
         <v>590</v>
@@ -3693,13 +3675,13 @@
         <v>626713</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>1198</v>
@@ -3708,13 +3690,13 @@
         <v>1264591</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,7 +3752,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3782,13 +3764,13 @@
         <v>54344</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -3797,13 +3779,13 @@
         <v>96478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>136</v>
@@ -3812,13 +3794,13 @@
         <v>150822</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3815,13 @@
         <v>560273</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>452</v>
@@ -3848,13 +3830,13 @@
         <v>519721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>951</v>
@@ -3863,13 +3845,13 @@
         <v>1079994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,7 +3907,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3937,13 +3919,13 @@
         <v>69579</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -3952,13 +3934,13 @@
         <v>130320</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -3967,13 +3949,13 @@
         <v>199899</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3970,13 @@
         <v>359850</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>286</v>
@@ -4003,13 +3985,13 @@
         <v>317480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>613</v>
@@ -4018,13 +4000,13 @@
         <v>677330</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,7 +4062,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4092,13 +4074,13 @@
         <v>201062</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>356</v>
@@ -4107,13 +4089,13 @@
         <v>381566</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="M19" s="7">
         <v>532</v>
@@ -4122,13 +4104,13 @@
         <v>582627</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4125,13 @@
         <v>358575</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H20" s="7">
         <v>338</v>
@@ -4158,13 +4140,13 @@
         <v>361409</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="M20" s="7">
         <v>666</v>
@@ -4173,13 +4155,13 @@
         <v>719985</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4229,13 @@
         <v>411325</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H22" s="7">
         <v>687</v>
@@ -4262,13 +4244,13 @@
         <v>742915</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>1062</v>
@@ -4277,13 +4259,13 @@
         <v>1154239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4280,13 @@
         <v>3015454</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H23" s="7">
         <v>2611</v>
@@ -4313,13 +4295,13 @@
         <v>2815394</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>5445</v>
@@ -4328,13 +4310,13 @@
         <v>5830849</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,7 +4372,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4412,7 +4394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57773DBE-45FF-4AB0-BA5C-6A47E43171B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4973EE92-E9A1-48E9-A8CD-9820BD3D42A1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +4411,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,13 +4518,13 @@
         <v>8686</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4551,13 +4533,13 @@
         <v>12977</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>166</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4566,13 +4548,13 @@
         <v>21663</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4569,13 @@
         <v>410777</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H5" s="7">
         <v>391</v>
@@ -4602,13 +4584,13 @@
         <v>382778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>776</v>
@@ -4617,13 +4599,13 @@
         <v>793555</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4673,13 @@
         <v>26181</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>193</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -4706,13 +4688,13 @@
         <v>34410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M7" s="7">
         <v>58</v>
@@ -4721,13 +4703,13 @@
         <v>60591</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4724,13 @@
         <v>564315</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>296</v>
+        <v>203</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -4757,13 +4739,13 @@
         <v>529134</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>1088</v>
@@ -4772,13 +4754,13 @@
         <v>1093449</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4828,13 @@
         <v>28604</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -4861,13 +4843,13 @@
         <v>58922</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -4876,13 +4858,13 @@
         <v>87527</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4879,13 @@
         <v>640493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H11" s="7">
         <v>610</v>
@@ -4912,13 +4894,13 @@
         <v>602464</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>1221</v>
@@ -4927,13 +4909,13 @@
         <v>1242956</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,7 +4971,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5001,13 +4983,13 @@
         <v>66879</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>81</v>
@@ -5016,13 +4998,13 @@
         <v>86723</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -5031,13 +5013,13 @@
         <v>153602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5034,13 @@
         <v>579169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H14" s="7">
         <v>521</v>
@@ -5067,28 +5049,28 @@
         <v>562354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
         <v>1044</v>
       </c>
       <c r="N14" s="7">
-        <v>1141523</v>
+        <v>1141524</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,7 +5112,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5144,7 +5126,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5156,13 +5138,13 @@
         <v>63304</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -5171,13 +5153,13 @@
         <v>120976</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M16" s="7">
         <v>161</v>
@@ -5186,13 +5168,13 @@
         <v>184280</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5189,13 @@
         <v>414614</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>326</v>
@@ -5222,13 +5204,13 @@
         <v>375873</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>696</v>
@@ -5237,13 +5219,13 @@
         <v>790487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,7 +5281,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5311,13 +5293,13 @@
         <v>162045</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>306</v>
@@ -5326,13 +5308,13 @@
         <v>375310</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>480</v>
@@ -5341,13 +5323,13 @@
         <v>537355</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5344,13 @@
         <v>429283</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H20" s="7">
         <v>349</v>
@@ -5377,13 +5359,13 @@
         <v>402621</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M20" s="7">
         <v>802</v>
@@ -5392,13 +5374,13 @@
         <v>831904</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5448,13 @@
         <v>355699</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H22" s="7">
         <v>596</v>
@@ -5481,13 +5463,13 @@
         <v>689319</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>942</v>
@@ -5496,13 +5478,13 @@
         <v>1045018</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5499,13 @@
         <v>3038651</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="H23" s="7">
         <v>2742</v>
@@ -5532,13 +5514,13 @@
         <v>2855223</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M23" s="7">
         <v>5627</v>
@@ -5547,13 +5529,13 @@
         <v>5893874</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,7 +5591,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5631,7 +5613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E390C906-C5B4-42F6-AB98-2CC10D0A39D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B480271-91DF-4E21-B1B3-80E4B3B0CC69}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5648,7 +5630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,13 +5737,13 @@
         <v>7777</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5770,13 +5752,13 @@
         <v>14764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5785,13 +5767,13 @@
         <v>22542</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5788,13 @@
         <v>369902</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>399</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="H5" s="7">
         <v>199</v>
@@ -5821,13 +5803,13 @@
         <v>340193</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>368</v>
@@ -5836,13 +5818,13 @@
         <v>710094</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5892,13 @@
         <v>31179</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -5928,10 +5910,10 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5940,13 +5922,13 @@
         <v>57043</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>36</v>
+        <v>403</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>411</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5943,13 @@
         <v>397217</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>196</v>
+        <v>406</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H8" s="7">
         <v>435</v>
@@ -5979,10 +5961,10 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M8" s="7">
         <v>715</v>
@@ -5991,13 +5973,13 @@
         <v>869337</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>410</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>416</v>
+        <v>294</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6047,13 @@
         <v>46419</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
@@ -6080,13 +6062,13 @@
         <v>62371</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -6095,13 +6077,13 @@
         <v>108790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6098,13 @@
         <v>510833</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H11" s="7">
         <v>759</v>
@@ -6131,13 +6113,13 @@
         <v>521105</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M11" s="7">
         <v>1266</v>
@@ -6146,13 +6128,13 @@
         <v>1031937</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,7 +6190,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6220,13 +6202,13 @@
         <v>90691</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -6235,13 +6217,13 @@
         <v>123233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -6250,13 +6232,13 @@
         <v>213924</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6253,13 @@
         <v>632172</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H14" s="7">
         <v>960</v>
@@ -6286,13 +6268,13 @@
         <v>623358</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>1543</v>
@@ -6301,13 +6283,13 @@
         <v>1255530</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,7 +6345,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6375,13 +6357,13 @@
         <v>122818</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -6390,13 +6372,13 @@
         <v>146687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>361</v>
@@ -6405,13 +6387,13 @@
         <v>269504</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6408,13 @@
         <v>477339</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H17" s="7">
         <v>765</v>
@@ -6441,13 +6423,13 @@
         <v>450376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>1304</v>
@@ -6456,13 +6438,13 @@
         <v>927716</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,7 +6500,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6530,13 +6512,13 @@
         <v>176761</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>728</v>
@@ -6545,13 +6527,13 @@
         <v>398010</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>985</v>
@@ -6560,13 +6542,13 @@
         <v>574771</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,13 +6563,13 @@
         <v>519817</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>979</v>
@@ -6596,13 +6578,13 @@
         <v>628128</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>1748</v>
@@ -6611,13 +6593,13 @@
         <v>1147946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6667,13 @@
         <v>475644</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H22" s="7">
         <v>1264</v>
@@ -6700,13 +6682,13 @@
         <v>770931</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>1790</v>
@@ -6715,13 +6697,13 @@
         <v>1246575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,16 +6715,16 @@
         <v>2847</v>
       </c>
       <c r="D23" s="7">
-        <v>2907280</v>
+        <v>2907281</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>4097</v>
@@ -6751,13 +6733,13 @@
         <v>3035278</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>6944</v>
@@ -6766,13 +6748,13 @@
         <v>5942559</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,7 +6766,7 @@
         <v>3373</v>
       </c>
       <c r="D24" s="7">
-        <v>3382924</v>
+        <v>3382925</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -6828,7 +6810,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P9_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P9_1_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65D721B3-5AC2-4934-B986-BABAADB0BB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65CB9EDD-33D4-486B-96A1-438458FDDEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8E9E9F8B-257E-4224-8513-3D6F072B4504}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A4C1FA9D-61EB-4EF9-BB04-78C6DB600467}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1201 +77,1225 @@
     <t>3,12%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
   </si>
   <si>
     <t>6,82%</t>
   </si>
   <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>93,18%</t>
   </si>
   <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>10,91%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>89,09%</t>
   </si>
   <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>1,65%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>98,35%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
   </si>
   <si>
     <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
   </si>
   <si>
     <t>95,36%</t>
@@ -1956,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FE5080-7BD0-4CB6-AFD3-F4DD90DC8FA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9A3A0D-B510-463E-BF0D-ABA8682D5DC6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2393,10 +2417,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
@@ -2405,13 +2429,13 @@
         <v>63111</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -2420,13 +2444,13 @@
         <v>94199</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2465,13 @@
         <v>607580</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
         <v>598</v>
@@ -2456,13 +2480,13 @@
         <v>626633</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1181</v>
@@ -2471,13 +2495,13 @@
         <v>1234213</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,7 +2557,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2545,13 +2569,13 @@
         <v>37291</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
@@ -2560,13 +2584,13 @@
         <v>73261</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>108</v>
@@ -2575,13 +2599,13 @@
         <v>110552</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2620,13 @@
         <v>481856</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>430</v>
@@ -2611,13 +2635,13 @@
         <v>442381</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>878</v>
@@ -2626,13 +2650,13 @@
         <v>924237</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,7 +2712,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2700,13 +2724,13 @@
         <v>60528</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -2715,13 +2739,13 @@
         <v>72693</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -2730,13 +2754,13 @@
         <v>133221</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2775,13 @@
         <v>326182</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>325</v>
@@ -2766,13 +2790,13 @@
         <v>331293</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>655</v>
@@ -2781,13 +2805,13 @@
         <v>657475</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2867,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2879,13 @@
         <v>129626</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>255</v>
@@ -2870,13 +2894,13 @@
         <v>267305</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>391</v>
@@ -2885,13 +2909,13 @@
         <v>396931</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2930,13 @@
         <v>372840</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>406</v>
@@ -2921,13 +2945,13 @@
         <v>409537</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>793</v>
@@ -2936,13 +2960,13 @@
         <v>782377</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,16 +3031,16 @@
         <v>300</v>
       </c>
       <c r="D22" s="7">
-        <v>296418</v>
+        <v>296417</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>530</v>
@@ -3025,13 +3049,13 @@
         <v>552134</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>830</v>
@@ -3040,13 +3064,13 @@
         <v>848551</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3085,13 @@
         <v>2980126</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2767</v>
@@ -3076,13 +3100,13 @@
         <v>2827064</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>5681</v>
@@ -3091,13 +3115,13 @@
         <v>5807190</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3133,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3153,7 +3177,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3175,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D2995A-8570-4176-9FD5-3C663D65C280}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2CED1B-EAA0-43A8-A105-DCEEE0EDC38E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3192,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3299,13 +3323,13 @@
         <v>18371</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>19</v>
@@ -3314,13 +3338,13 @@
         <v>20208</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>37</v>
@@ -3329,13 +3353,13 @@
         <v>38579</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3374,13 @@
         <v>435775</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7">
         <v>402</v>
@@ -3365,13 +3389,13 @@
         <v>410022</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>830</v>
@@ -3380,13 +3404,13 @@
         <v>845797</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3478,13 @@
         <v>23985</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3469,13 +3493,13 @@
         <v>30206</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -3484,13 +3508,13 @@
         <v>54191</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,7 +3529,7 @@
         <v>663102</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>170</v>
@@ -3526,7 +3550,7 @@
         <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>1187</v>
@@ -3535,13 +3559,13 @@
         <v>1243151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3633,13 @@
         <v>43984</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -3624,13 +3648,13 @@
         <v>84137</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>72</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -3639,13 +3663,13 @@
         <v>128121</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3684,13 @@
         <v>637879</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>590</v>
@@ -3675,13 +3699,13 @@
         <v>626713</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>1198</v>
@@ -3690,13 +3714,13 @@
         <v>1264591</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3776,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3764,13 +3788,13 @@
         <v>54344</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -3779,13 +3803,13 @@
         <v>96478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>136</v>
@@ -3794,13 +3818,13 @@
         <v>150822</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,13 +3839,13 @@
         <v>560273</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>452</v>
@@ -3830,13 +3854,13 @@
         <v>519721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>951</v>
@@ -3845,13 +3869,13 @@
         <v>1079994</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,7 +3931,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3919,13 +3943,13 @@
         <v>69579</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -3934,13 +3958,13 @@
         <v>130320</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -3949,13 +3973,13 @@
         <v>199899</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3994,13 @@
         <v>359850</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>286</v>
@@ -3985,13 +4009,13 @@
         <v>317480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>613</v>
@@ -4000,13 +4024,13 @@
         <v>677330</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,7 +4086,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4074,13 +4098,13 @@
         <v>201062</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H19" s="7">
         <v>356</v>
@@ -4089,13 +4113,13 @@
         <v>381566</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M19" s="7">
         <v>532</v>
@@ -4104,13 +4128,13 @@
         <v>582627</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4149,13 @@
         <v>358575</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>338</v>
@@ -4140,13 +4164,13 @@
         <v>361409</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>666</v>
@@ -4155,13 +4179,13 @@
         <v>719985</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4253,13 @@
         <v>411325</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>687</v>
@@ -4244,13 +4268,13 @@
         <v>742915</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>1062</v>
@@ -4259,13 +4283,13 @@
         <v>1154239</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,13 +4304,13 @@
         <v>3015454</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>2611</v>
@@ -4295,13 +4319,13 @@
         <v>2815394</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>5445</v>
@@ -4310,13 +4334,13 @@
         <v>5830849</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,7 +4396,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4973EE92-E9A1-48E9-A8CD-9820BD3D42A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DEA78A-F167-49A3-8434-9FD7295F8E9F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4411,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4518,13 +4542,13 @@
         <v>8686</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -4533,13 +4557,13 @@
         <v>12977</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>270</v>
+        <v>19</v>
       </c>
       <c r="M4" s="7">
         <v>21</v>
@@ -4548,13 +4572,13 @@
         <v>21663</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4593,13 @@
         <v>410777</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>391</v>
@@ -4584,10 +4608,10 @@
         <v>382778</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>279</v>
@@ -4679,7 +4703,7 @@
         <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -4688,10 +4712,10 @@
         <v>34410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>287</v>
@@ -4727,10 +4751,10 @@
         <v>291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>203</v>
+        <v>292</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>545</v>
@@ -4739,13 +4763,13 @@
         <v>529134</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="M8" s="7">
         <v>1088</v>
@@ -4846,10 +4870,10 @@
         <v>302</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -4858,13 +4882,13 @@
         <v>87527</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4903,13 @@
         <v>640493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>610</v>
@@ -4894,13 +4918,13 @@
         <v>602464</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>1221</v>
@@ -4909,13 +4933,13 @@
         <v>1242956</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,7 +4995,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4983,13 +5007,13 @@
         <v>66879</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H13" s="7">
         <v>81</v>
@@ -4998,13 +5022,13 @@
         <v>86723</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>140</v>
@@ -5013,13 +5037,13 @@
         <v>153602</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5034,13 +5058,13 @@
         <v>579169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>521</v>
@@ -5049,28 +5073,28 @@
         <v>562354</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>1044</v>
       </c>
       <c r="N14" s="7">
-        <v>1141524</v>
+        <v>1141523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,7 +5136,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5126,7 +5150,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5138,13 +5162,13 @@
         <v>63304</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>107</v>
@@ -5153,13 +5177,13 @@
         <v>120976</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>161</v>
@@ -5168,13 +5192,13 @@
         <v>184280</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5213,13 @@
         <v>414614</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>326</v>
@@ -5204,13 +5228,13 @@
         <v>375873</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>696</v>
@@ -5219,13 +5243,13 @@
         <v>790487</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,7 +5305,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5293,13 +5317,13 @@
         <v>162045</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>306</v>
@@ -5308,13 +5332,13 @@
         <v>375310</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>480</v>
@@ -5323,13 +5347,13 @@
         <v>537355</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5368,13 @@
         <v>429283</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>349</v>
@@ -5359,13 +5383,13 @@
         <v>402621</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>802</v>
@@ -5374,13 +5398,13 @@
         <v>831904</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5472,13 @@
         <v>355699</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H22" s="7">
         <v>596</v>
@@ -5463,13 +5487,13 @@
         <v>689319</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M22" s="7">
         <v>942</v>
@@ -5478,13 +5502,13 @@
         <v>1045018</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,13 +5523,13 @@
         <v>3038651</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="H23" s="7">
         <v>2742</v>
@@ -5514,13 +5538,13 @@
         <v>2855223</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M23" s="7">
         <v>5627</v>
@@ -5529,13 +5553,13 @@
         <v>5893874</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5591,7 +5615,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5613,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B480271-91DF-4E21-B1B3-80E4B3B0CC69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B367D93E-5779-4D93-A318-D6DFCD481858}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5630,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5737,13 +5761,13 @@
         <v>7777</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5752,13 +5776,13 @@
         <v>14764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>386</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>272</v>
+        <v>392</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -5767,13 +5791,13 @@
         <v>22542</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5812,13 @@
         <v>369902</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H5" s="7">
         <v>199</v>
@@ -5803,13 +5827,13 @@
         <v>340193</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>393</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>282</v>
+        <v>400</v>
       </c>
       <c r="M5" s="7">
         <v>368</v>
@@ -5818,13 +5842,13 @@
         <v>710094</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5916,13 @@
         <v>31179</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -5910,10 +5934,10 @@
         <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="M7" s="7">
         <v>46</v>
@@ -5922,13 +5946,13 @@
         <v>57043</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>287</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5967,13 @@
         <v>397217</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H8" s="7">
         <v>435</v>
@@ -5961,10 +5985,10 @@
         <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M8" s="7">
         <v>715</v>
@@ -5973,13 +5997,13 @@
         <v>869337</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6071,13 @@
         <v>46419</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H10" s="7">
         <v>87</v>
@@ -6062,13 +6086,13 @@
         <v>62371</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -6077,13 +6101,13 @@
         <v>108790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6122,13 @@
         <v>510833</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="H11" s="7">
         <v>759</v>
@@ -6113,13 +6137,13 @@
         <v>521105</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="M11" s="7">
         <v>1266</v>
@@ -6128,13 +6152,13 @@
         <v>1031937</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6190,7 +6214,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6202,13 +6226,13 @@
         <v>90691</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -6217,13 +6241,13 @@
         <v>123233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="M13" s="7">
         <v>261</v>
@@ -6232,13 +6256,13 @@
         <v>213924</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6277,13 @@
         <v>632172</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H14" s="7">
         <v>960</v>
@@ -6268,13 +6292,13 @@
         <v>623358</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M14" s="7">
         <v>1543</v>
@@ -6283,13 +6307,13 @@
         <v>1255530</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,7 +6369,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6357,13 +6381,13 @@
         <v>122818</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="H16" s="7">
         <v>237</v>
@@ -6372,13 +6396,13 @@
         <v>146687</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="M16" s="7">
         <v>361</v>
@@ -6387,13 +6411,13 @@
         <v>269504</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6432,13 @@
         <v>477339</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H17" s="7">
         <v>765</v>
@@ -6423,13 +6447,13 @@
         <v>450376</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="M17" s="7">
         <v>1304</v>
@@ -6438,13 +6462,13 @@
         <v>927716</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6500,7 +6524,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6512,13 +6536,13 @@
         <v>176761</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="H19" s="7">
         <v>728</v>
@@ -6527,13 +6551,13 @@
         <v>398010</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="M19" s="7">
         <v>985</v>
@@ -6542,13 +6566,13 @@
         <v>574771</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6587,13 @@
         <v>519817</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>979</v>
@@ -6578,13 +6602,13 @@
         <v>628128</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>1748</v>
@@ -6593,13 +6617,13 @@
         <v>1147946</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6691,13 @@
         <v>475644</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>1264</v>
@@ -6682,13 +6706,13 @@
         <v>770931</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M22" s="7">
         <v>1790</v>
@@ -6697,13 +6721,13 @@
         <v>1246575</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,13 +6742,13 @@
         <v>2907281</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="H23" s="7">
         <v>4097</v>
@@ -6733,13 +6757,13 @@
         <v>3035278</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="M23" s="7">
         <v>6944</v>
@@ -6748,13 +6772,13 @@
         <v>5942559</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,7 +6834,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
